--- a/Test/Lawnmower/T2/Sensors_data_1000013.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000013.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9693608578269963</v>
+        <v>0.9758559770360394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001293285909895839</v>
+        <v>0.0008629926319956994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3228312512660091</v>
+        <v>0.03576859032651541</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2506837968439672</v>
+        <v>0.1517595047615122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04099055377763169</v>
+        <v>0.03404393990661106</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4797556901485472</v>
+        <v>0.4366600070748158</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7242671220023984</v>
+        <v>0.5291773926581863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007766092492695201</v>
+        <v>0.01637104504666813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3145675573670024</v>
+        <v>0.01280545577448344</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4768428513438512</v>
+        <v>0.9695909843501368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0241410322324058</v>
+        <v>0.00186808512389176</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5546781167146636</v>
+        <v>0.2203459932989499</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9957467689663323</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0002357604892183721</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2695974057540521</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
